--- a/trunk/3. Requirement/SubmitTeamWork/1 - Deadline 271113/Question Module hỏi đáp.xlsx
+++ b/trunk/3. Requirement/SubmitTeamWork/1 - Deadline 271113/Question Module hỏi đáp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thienphu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\capstone\3. Requirement\SubmitTeamWork\1 - Deadline 271113\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Functional- Hỏi</t>
   </si>
   <si>
-    <t>Functional-T Đáp</t>
-  </si>
-  <si>
     <t>Functional- Tìm Kiếm</t>
   </si>
   <si>
@@ -89,10 +86,16 @@
     <t>Có những thuộc tính chất lượng nào?</t>
   </si>
   <si>
-    <t>Quality Attribute- Hỏi</t>
-  </si>
-  <si>
     <t>Lý do sử dụng mỗi loại quality attribute ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hiển thị bao nhiêu tin hỏi đáp trên 1 trang</t>
+  </si>
+  <si>
+    <t>Quality Attribute- Hỏi/đáp</t>
+  </si>
+  <si>
+    <t>Functional- Đáp</t>
   </si>
 </sst>
 </file>
@@ -193,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -209,6 +212,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -510,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:C29"/>
+  <dimension ref="A7:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,11 +530,11 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -542,26 +548,26 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="8">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
@@ -570,7 +576,7 @@
       <c r="A12" s="4">
         <v>3</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
@@ -579,7 +585,7 @@
       <c r="A13" s="4">
         <v>4</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>6</v>
       </c>
@@ -588,135 +594,141 @@
       <c r="A14" s="4">
         <v>5</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>6</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="8">
+      <c r="B16" s="10"/>
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>8</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>10</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>8</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>9</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>10</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>12</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>13</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="C24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>22</v>
-      </c>
+      <c r="A26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>2</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B9:B15"/>
-    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B9:B16"/>
+    <mergeCell ref="B17:B23"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
